--- a/biology/Écologie/Société_canadienne_d'écologie_et_d'évolution/Société_canadienne_d'écologie_et_d'évolution.xlsx
+++ b/biology/Écologie/Société_canadienne_d'écologie_et_d'évolution/Société_canadienne_d'écologie_et_d'évolution.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_canadienne_d%27%C3%A9cologie_et_d%27%C3%A9volution</t>
+          <t>Société_canadienne_d'écologie_et_d'évolution</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Société canadienne d'écologie et d'évolution (SCEE) est un regroupement indépendant de scientifiques (écologistes et biologistes évolutionnistes) de l'ensemble du Canada. La société a été fondée en avril 2006, le tout premier congrès se tenant à Montréal, Québec, Canada. La SCEE est un organisme à but non lucratif. L'objectif principal de la société est de promouvoir les questions d'importance écologique et évolutive au Canada.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_canadienne_d%27%C3%A9cologie_et_d%27%C3%A9volution</t>
+          <t>Société_canadienne_d'écologie_et_d'évolution</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Objectifs</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les objectifs de la SCEE sont de : 
 (1) promouvoir l'étude de l'écologie et de l'évolution au Canada ;
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_canadienne_d%27%C3%A9cologie_et_d%27%C3%A9volution</t>
+          <t>Société_canadienne_d'écologie_et_d'évolution</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Activités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les congrès sont tenus annuellement par une institution différente à chaque année. Les membres de la société, incluant les étudiants gradués ainsi que les facultés académiques, présentent des affiches et des présentations orales afin d’exposer leurs résultats. Des ateliers sont aussi organisés lors des congrès annuels afin de promouvoir les interactions entre scientifiques, ce qui permet de guider les prochaines générations d’écologistes et de biologistes évolutionnaires au Canada.
 Plusieurs comités travaillent activement afin d’atteindre les objectifs de la société. Par exemple, le Comité de conscientisation a organisé des conférences publiques et des évènements pour enfants lors des congrès annuels, et a aussi développé des capsules afin de mettre en évidence l’importance de l’écologie et de l’évolution à la société canadienne. Un autre exemple est le Comité sur la biodiversité et la conservation qui collabore avec d'autres organismes intéressés dans le développement du rôle des biologistes canadiens afin de contribuer à la conservation de la biodiversité. 
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_canadienne_d%27%C3%A9cologie_et_d%27%C3%A9volution</t>
+          <t>Société_canadienne_d'écologie_et_d'évolution</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>Conseil d’administration</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le conseil d'administration de la SCEE: 
 Jeffrey Hutchings (Dalhousie University) - Président (2012 - 2013)
@@ -607,7 +625,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_canadienne_d%27%C3%A9cologie_et_d%27%C3%A9volution</t>
+          <t>Société_canadienne_d'écologie_et_d'évolution</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -622,41 +640,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Liens</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Société canadienne d'écologie et d'évolution
-Institut canadien d’écologie et d’évolution</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Soci%C3%A9t%C3%A9_canadienne_d%27%C3%A9cologie_et_d%27%C3%A9volution</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Soci%C3%A9t%C3%A9_canadienne_d%27%C3%A9cologie_et_d%27%C3%A9volution</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
           <t>Congrès précédents</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Montréal 2006
 Toronto 2007
